--- a/biology/Botanique/Drosera_regia/Drosera_regia.xlsx
+++ b/biology/Botanique/Drosera_regia/Drosera_regia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Drosera regia ou Rossolis royal est une plante carnivore de la famille des  Droseraceae.
 Histoire et étymologie : La description de ce droséra date de 1926, par Stephens. Le nom de la plante provient de son aspect majestueux. Géant incontesté du genre, ses longes feuilles semi-couchées dépassent 70 cm de long.
 Taille : plus de 50 cm de haut
 Climat : tempéré
-Aire naturelle : Afrique du Sud, près du Cap dans une seule vallée, la vallée de Baviaanskloof. C'est une zone montagneuse aux sols sableux et tourbeux avec des ruisseaux[2].
+Aire naturelle : Afrique du Sud, près du Cap dans une seule vallée, la vallée de Baviaanskloof. C'est une zone montagneuse aux sols sableux et tourbeux avec des ruisseaux.
 Description : plante terrestre, vivace. Feuilles linéaires densément couvertes de poils glanduleux. Les grandes fleurs roses sont portées par des hampes florales de 40 cm de haut.
 </t>
         </is>
